--- a/add_holiday.xlsx
+++ b/add_holiday.xlsx
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="B1:N481"/>
+  <dimension ref="B1:O481"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
@@ -562,9 +562,9 @@
           <t>7 or more tries (X)</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>is_holiday</t>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>the number of morphemes</t>
         </is>
       </c>
     </row>
@@ -607,11 +607,6 @@
       <c r="M3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="6">
       <c r="B4" s="8" t="n">
@@ -652,11 +647,6 @@
       <c r="M4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="6">
       <c r="B5" s="8" t="n">
@@ -697,11 +687,6 @@
       <c r="M5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="6">
       <c r="B6" s="8" t="n">
@@ -742,11 +727,6 @@
       <c r="M6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="6">
       <c r="B7" s="8" t="n">
@@ -787,11 +767,6 @@
       <c r="M7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="6">
       <c r="B8" s="8" t="n">
@@ -832,11 +807,6 @@
       <c r="M8" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="6">
       <c r="B9" s="8" t="n">
@@ -877,11 +847,6 @@
       <c r="M9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="6">
       <c r="B10" s="8" t="n">
@@ -922,11 +887,6 @@
       <c r="M10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="6">
       <c r="B11" s="8" t="n">
@@ -967,11 +927,6 @@
       <c r="M11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="6">
       <c r="B12" s="8" t="n">
@@ -1012,11 +967,6 @@
       <c r="M12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="6">
       <c r="B13" s="8" t="n">
@@ -1057,11 +1007,6 @@
       <c r="M13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="6">
       <c r="B14" s="8" t="n">
@@ -1102,11 +1047,6 @@
       <c r="M14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="6">
       <c r="B15" s="8" t="n">
@@ -1147,11 +1087,6 @@
       <c r="M15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="6">
       <c r="B16" s="8" t="n">
@@ -1192,11 +1127,6 @@
       <c r="M16" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="6">
       <c r="B17" s="8" t="n">
@@ -1237,11 +1167,6 @@
       <c r="M17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="6">
       <c r="B18" s="8" t="n">
@@ -1282,11 +1207,6 @@
       <c r="M18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="6">
       <c r="B19" s="8" t="n">
@@ -1327,11 +1247,6 @@
       <c r="M19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="6">
       <c r="B20" s="8" t="n">
@@ -1372,11 +1287,6 @@
       <c r="M20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="6">
       <c r="B21" s="8" t="n">
@@ -1417,11 +1327,6 @@
       <c r="M21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="6">
       <c r="B22" s="8" t="n">
@@ -1462,11 +1367,6 @@
       <c r="M22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="6">
       <c r="B23" s="8" t="n">
@@ -1507,11 +1407,6 @@
       <c r="M23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="6">
       <c r="B24" s="8" t="n">
@@ -1552,11 +1447,6 @@
       <c r="M24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="6">
       <c r="B25" s="8" t="n">
@@ -1597,11 +1487,6 @@
       <c r="M25" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="6">
       <c r="B26" s="8" t="n">
@@ -1642,11 +1527,6 @@
       <c r="M26" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="6">
       <c r="B27" s="8" t="n">
@@ -1687,11 +1567,6 @@
       <c r="M27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="6">
       <c r="B28" s="8" t="n">
@@ -1732,11 +1607,6 @@
       <c r="M28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="6">
       <c r="B29" s="8" t="n">
@@ -1777,11 +1647,6 @@
       <c r="M29" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="6">
       <c r="B30" s="8" t="n">
@@ -1822,11 +1687,6 @@
       <c r="M30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="6">
       <c r="B31" s="8" t="n">
@@ -1867,11 +1727,6 @@
       <c r="M31" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="6">
       <c r="B32" s="8" t="n">
@@ -1912,11 +1767,6 @@
       <c r="M32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="6">
       <c r="B33" s="8" t="n">
@@ -1957,11 +1807,6 @@
       <c r="M33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="6">
       <c r="B34" s="8" t="n">
@@ -2002,11 +1847,6 @@
       <c r="M34" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="6">
       <c r="B35" s="8" t="n">
@@ -2047,11 +1887,6 @@
       <c r="M35" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="6">
       <c r="B36" s="8" t="n">
@@ -2092,11 +1927,6 @@
       <c r="M36" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="6">
       <c r="B37" s="8" t="n">
@@ -2137,11 +1967,6 @@
       <c r="M37" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="6">
       <c r="B38" s="8" t="n">
@@ -2182,11 +2007,6 @@
       <c r="M38" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="6">
       <c r="B39" s="8" t="n">
@@ -2227,11 +2047,6 @@
       <c r="M39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="6">
       <c r="B40" s="8" t="n">
@@ -2272,11 +2087,6 @@
       <c r="M40" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="6">
       <c r="B41" s="8" t="n">
@@ -2317,11 +2127,6 @@
       <c r="M41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="6">
       <c r="B42" s="8" t="n">
@@ -2362,11 +2167,6 @@
       <c r="M42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="6">
       <c r="B43" s="8" t="n">
@@ -2407,11 +2207,6 @@
       <c r="M43" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="6">
       <c r="B44" s="8" t="n">
@@ -2452,11 +2247,6 @@
       <c r="M44" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="6">
       <c r="B45" s="8" t="n">
@@ -2497,11 +2287,6 @@
       <c r="M45" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="6">
       <c r="B46" s="8" t="n">
@@ -2542,11 +2327,6 @@
       <c r="M46" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="6">
       <c r="B47" s="8" t="n">
@@ -2587,11 +2367,6 @@
       <c r="M47" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="6">
       <c r="B48" s="8" t="n">
@@ -2632,11 +2407,6 @@
       <c r="M48" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="6">
       <c r="B49" s="8" t="n">
@@ -2677,11 +2447,6 @@
       <c r="M49" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="6">
       <c r="B50" s="8" t="n">
@@ -2722,11 +2487,6 @@
       <c r="M50" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1" s="6">
       <c r="B51" s="8" t="n">
@@ -2767,11 +2527,6 @@
       <c r="M51" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1" s="6">
       <c r="B52" s="8" t="n">
@@ -2812,11 +2567,6 @@
       <c r="M52" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1" s="6">
       <c r="B53" s="8" t="n">
@@ -2857,11 +2607,6 @@
       <c r="M53" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="6">
       <c r="B54" s="8" t="n">
@@ -2902,11 +2647,6 @@
       <c r="M54" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1" s="6">
       <c r="B55" s="8" t="n">
@@ -2947,11 +2687,6 @@
       <c r="M55" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1" s="6">
       <c r="B56" s="8" t="n">
@@ -2992,11 +2727,6 @@
       <c r="M56" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1" s="6">
       <c r="B57" s="8" t="n">
@@ -3037,11 +2767,6 @@
       <c r="M57" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" s="6">
       <c r="B58" s="8" t="n">
@@ -3082,11 +2807,6 @@
       <c r="M58" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1" s="6">
       <c r="B59" s="8" t="n">
@@ -3127,11 +2847,6 @@
       <c r="M59" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1" s="6">
       <c r="B60" s="8" t="n">
@@ -3172,11 +2887,6 @@
       <c r="M60" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1" s="6">
       <c r="B61" s="8" t="n">
@@ -3217,11 +2927,6 @@
       <c r="M61" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="62" ht="15.75" customHeight="1" s="6">
       <c r="B62" s="8" t="n">
@@ -3262,11 +2967,6 @@
       <c r="M62" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1" s="6">
       <c r="B63" s="8" t="n">
@@ -3307,11 +3007,6 @@
       <c r="M63" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1" s="6">
       <c r="B64" s="8" t="n">
@@ -3352,11 +3047,6 @@
       <c r="M64" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1" s="6">
       <c r="B65" s="8" t="n">
@@ -3397,11 +3087,6 @@
       <c r="M65" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1" s="6">
       <c r="B66" s="8" t="n">
@@ -3442,11 +3127,6 @@
       <c r="M66" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1" s="6">
       <c r="B67" s="8" t="n">
@@ -3487,11 +3167,6 @@
       <c r="M67" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="68" ht="15.75" customHeight="1" s="6">
       <c r="B68" s="8" t="n">
@@ -3532,11 +3207,6 @@
       <c r="M68" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="69" ht="15.75" customHeight="1" s="6">
       <c r="B69" s="8" t="n">
@@ -3577,11 +3247,6 @@
       <c r="M69" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="70" ht="15.75" customHeight="1" s="6">
       <c r="B70" s="8" t="n">
@@ -3622,11 +3287,6 @@
       <c r="M70" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="71" ht="15.75" customHeight="1" s="6">
       <c r="B71" s="8" t="n">
@@ -3667,11 +3327,6 @@
       <c r="M71" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="72" ht="15.75" customHeight="1" s="6">
       <c r="B72" s="8" t="n">
@@ -3712,11 +3367,6 @@
       <c r="M72" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="73" ht="15.75" customHeight="1" s="6">
       <c r="B73" s="8" t="n">
@@ -3757,11 +3407,6 @@
       <c r="M73" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="74" ht="15.75" customHeight="1" s="6">
       <c r="B74" s="8" t="n">
@@ -3802,11 +3447,6 @@
       <c r="M74" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="75" ht="15.75" customHeight="1" s="6">
       <c r="B75" s="8" t="n">
@@ -3847,11 +3487,6 @@
       <c r="M75" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="76" ht="15.75" customHeight="1" s="6">
       <c r="B76" s="8" t="n">
@@ -3892,11 +3527,6 @@
       <c r="M76" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="77" ht="15.75" customHeight="1" s="6">
       <c r="B77" s="8" t="n">
@@ -3937,11 +3567,6 @@
       <c r="M77" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="78" ht="15.75" customHeight="1" s="6">
       <c r="B78" s="8" t="n">
@@ -3982,11 +3607,6 @@
       <c r="M78" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="79" ht="15.75" customHeight="1" s="6">
       <c r="B79" s="8" t="n">
@@ -4027,11 +3647,6 @@
       <c r="M79" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="80" ht="15.75" customHeight="1" s="6">
       <c r="B80" s="8" t="n">
@@ -4072,11 +3687,6 @@
       <c r="M80" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="81" ht="15.75" customHeight="1" s="6">
       <c r="B81" s="8" t="n">
@@ -4117,11 +3727,6 @@
       <c r="M81" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="82" ht="15.75" customHeight="1" s="6">
       <c r="B82" s="8" t="n">
@@ -4162,11 +3767,6 @@
       <c r="M82" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="83" ht="15.75" customHeight="1" s="6">
       <c r="B83" s="8" t="n">
@@ -4207,11 +3807,6 @@
       <c r="M83" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="84" ht="15.75" customHeight="1" s="6">
       <c r="B84" s="8" t="n">
@@ -4252,11 +3847,6 @@
       <c r="M84" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="85" ht="15.75" customHeight="1" s="6">
       <c r="B85" s="8" t="n">
@@ -4297,11 +3887,6 @@
       <c r="M85" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="86" ht="15.75" customHeight="1" s="6">
       <c r="B86" s="8" t="n">
@@ -4342,11 +3927,6 @@
       <c r="M86" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="87" ht="15.75" customHeight="1" s="6">
       <c r="B87" s="8" t="n">
@@ -4387,11 +3967,6 @@
       <c r="M87" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="88" ht="15.75" customHeight="1" s="6">
       <c r="B88" s="8" t="n">
@@ -4432,11 +4007,6 @@
       <c r="M88" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="89" ht="15.75" customHeight="1" s="6">
       <c r="B89" s="8" t="n">
@@ -4477,11 +4047,6 @@
       <c r="M89" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="90" ht="15.75" customHeight="1" s="6">
       <c r="B90" s="8" t="n">
@@ -4522,11 +4087,6 @@
       <c r="M90" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="91" ht="15.75" customHeight="1" s="6">
       <c r="B91" s="8" t="n">
@@ -4567,11 +4127,6 @@
       <c r="M91" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="92" ht="15.75" customHeight="1" s="6">
       <c r="B92" s="8" t="n">
@@ -4612,11 +4167,6 @@
       <c r="M92" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="93" ht="15.75" customHeight="1" s="6">
       <c r="B93" s="8" t="n">
@@ -4657,11 +4207,6 @@
       <c r="M93" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="94" ht="15.75" customHeight="1" s="6">
       <c r="B94" s="8" t="n">
@@ -4702,11 +4247,6 @@
       <c r="M94" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="95" ht="15.75" customHeight="1" s="6">
       <c r="B95" s="8" t="n">
@@ -4747,11 +4287,6 @@
       <c r="M95" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="96" ht="15.75" customHeight="1" s="6">
       <c r="B96" s="8" t="n">
@@ -4792,11 +4327,6 @@
       <c r="M96" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="97" ht="15.75" customHeight="1" s="6">
       <c r="B97" s="8" t="n">
@@ -4837,11 +4367,6 @@
       <c r="M97" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="98" ht="15.75" customHeight="1" s="6">
       <c r="B98" s="8" t="n">
@@ -4882,11 +4407,6 @@
       <c r="M98" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="99" ht="15.75" customHeight="1" s="6">
       <c r="B99" s="8" t="n">
@@ -4927,11 +4447,6 @@
       <c r="M99" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="100" ht="15.75" customHeight="1" s="6">
       <c r="B100" s="8" t="n">
@@ -4972,11 +4487,6 @@
       <c r="M100" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="101" ht="15.75" customHeight="1" s="6">
       <c r="B101" s="8" t="n">
@@ -5017,11 +4527,6 @@
       <c r="M101" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="102" ht="15.75" customHeight="1" s="6">
       <c r="B102" s="8" t="n">
@@ -5062,11 +4567,6 @@
       <c r="M102" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="103" ht="15.75" customHeight="1" s="6">
       <c r="B103" s="8" t="n">
@@ -5107,11 +4607,6 @@
       <c r="M103" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="104" ht="15.75" customHeight="1" s="6">
       <c r="B104" s="8" t="n">
@@ -5152,11 +4647,6 @@
       <c r="M104" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="105" ht="15.75" customHeight="1" s="6">
       <c r="B105" s="8" t="n">
@@ -5197,11 +4687,6 @@
       <c r="M105" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="106" ht="15.75" customHeight="1" s="6">
       <c r="B106" s="8" t="n">
@@ -5242,11 +4727,6 @@
       <c r="M106" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="107" ht="15.75" customHeight="1" s="6">
       <c r="B107" s="8" t="n">
@@ -5287,11 +4767,6 @@
       <c r="M107" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="108" ht="15.75" customHeight="1" s="6">
       <c r="B108" s="8" t="n">
@@ -5332,11 +4807,6 @@
       <c r="M108" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="109" ht="15.75" customHeight="1" s="6">
       <c r="B109" s="8" t="n">
@@ -5377,11 +4847,6 @@
       <c r="M109" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="110" ht="15.75" customHeight="1" s="6">
       <c r="B110" s="8" t="n">
@@ -5422,11 +4887,6 @@
       <c r="M110" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="111" ht="15.75" customHeight="1" s="6">
       <c r="B111" s="8" t="n">
@@ -5467,11 +4927,6 @@
       <c r="M111" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="112" ht="15.75" customHeight="1" s="6">
       <c r="B112" s="8" t="n">
@@ -5512,11 +4967,6 @@
       <c r="M112" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="113" ht="15.75" customHeight="1" s="6">
       <c r="B113" s="8" t="n">
@@ -5557,11 +5007,6 @@
       <c r="M113" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="114" ht="15.75" customHeight="1" s="6">
       <c r="B114" s="8" t="n">
@@ -5602,11 +5047,6 @@
       <c r="M114" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="115" ht="15.75" customHeight="1" s="6">
       <c r="B115" s="8" t="n">
@@ -5647,11 +5087,6 @@
       <c r="M115" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="116" ht="15.75" customHeight="1" s="6">
       <c r="B116" s="8" t="n">
@@ -5692,11 +5127,6 @@
       <c r="M116" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="117" ht="15.75" customHeight="1" s="6">
       <c r="B117" s="8" t="n">
@@ -5737,11 +5167,6 @@
       <c r="M117" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="118" ht="15.75" customHeight="1" s="6">
       <c r="B118" s="8" t="n">
@@ -5782,11 +5207,6 @@
       <c r="M118" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="119" ht="15.75" customHeight="1" s="6">
       <c r="B119" s="8" t="n">
@@ -5827,11 +5247,6 @@
       <c r="M119" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="120" ht="15.75" customHeight="1" s="6">
       <c r="B120" s="8" t="n">
@@ -5872,11 +5287,6 @@
       <c r="M120" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="121" ht="15.75" customHeight="1" s="6">
       <c r="B121" s="8" t="n">
@@ -5917,11 +5327,6 @@
       <c r="M121" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="122" ht="15.75" customHeight="1" s="6">
       <c r="B122" s="8" t="n">
@@ -5962,11 +5367,6 @@
       <c r="M122" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="123" ht="15.75" customHeight="1" s="6">
       <c r="B123" s="8" t="n">
@@ -6007,11 +5407,6 @@
       <c r="M123" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="124" ht="15.75" customHeight="1" s="6">
       <c r="B124" s="8" t="n">
@@ -6052,11 +5447,6 @@
       <c r="M124" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="125" ht="15.75" customHeight="1" s="6">
       <c r="B125" s="8" t="n">
@@ -6097,11 +5487,6 @@
       <c r="M125" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="126" ht="15.75" customHeight="1" s="6">
       <c r="B126" s="8" t="n">
@@ -6142,11 +5527,6 @@
       <c r="M126" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="127" ht="15.75" customHeight="1" s="6">
       <c r="B127" s="8" t="n">
@@ -6187,11 +5567,6 @@
       <c r="M127" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="128" ht="15.75" customHeight="1" s="6">
       <c r="B128" s="8" t="n">
@@ -6232,11 +5607,6 @@
       <c r="M128" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="129" ht="15.75" customHeight="1" s="6">
       <c r="B129" s="8" t="n">
@@ -6277,11 +5647,6 @@
       <c r="M129" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="130" ht="15.75" customHeight="1" s="6">
       <c r="B130" s="8" t="n">
@@ -6322,11 +5687,6 @@
       <c r="M130" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="131" ht="15.75" customHeight="1" s="6">
       <c r="B131" s="8" t="n">
@@ -6367,11 +5727,6 @@
       <c r="M131" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="132" ht="15.75" customHeight="1" s="6">
       <c r="B132" s="8" t="n">
@@ -6412,11 +5767,6 @@
       <c r="M132" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="133" ht="15.75" customHeight="1" s="6">
       <c r="B133" s="8" t="n">
@@ -6457,11 +5807,6 @@
       <c r="M133" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="134" ht="15.75" customHeight="1" s="6">
       <c r="B134" s="8" t="n">
@@ -6502,11 +5847,6 @@
       <c r="M134" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="135" ht="15.75" customHeight="1" s="6">
       <c r="B135" s="8" t="n">
@@ -6547,11 +5887,6 @@
       <c r="M135" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="136" ht="15.75" customHeight="1" s="6">
       <c r="B136" s="8" t="n">
@@ -6592,11 +5927,6 @@
       <c r="M136" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="137" ht="15.75" customHeight="1" s="6">
       <c r="B137" s="8" t="n">
@@ -6637,11 +5967,6 @@
       <c r="M137" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="138" ht="15.75" customHeight="1" s="6">
       <c r="B138" s="8" t="n">
@@ -6682,11 +6007,6 @@
       <c r="M138" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="139" ht="15.75" customHeight="1" s="6">
       <c r="B139" s="8" t="n">
@@ -6727,11 +6047,6 @@
       <c r="M139" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="140" ht="15.75" customHeight="1" s="6">
       <c r="B140" s="8" t="n">
@@ -6772,11 +6087,6 @@
       <c r="M140" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="141" ht="15.75" customHeight="1" s="6">
       <c r="B141" s="8" t="n">
@@ -6817,11 +6127,6 @@
       <c r="M141" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="142" ht="15.75" customHeight="1" s="6">
       <c r="B142" s="8" t="n">
@@ -6862,11 +6167,6 @@
       <c r="M142" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="143" ht="15.75" customHeight="1" s="6">
       <c r="B143" s="8" t="n">
@@ -6907,11 +6207,6 @@
       <c r="M143" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="144" ht="15.75" customHeight="1" s="6">
       <c r="B144" s="8" t="n">
@@ -6952,11 +6247,6 @@
       <c r="M144" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="145" ht="15.75" customHeight="1" s="6">
       <c r="B145" s="8" t="n">
@@ -6997,11 +6287,6 @@
       <c r="M145" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="146" ht="15.75" customHeight="1" s="6">
       <c r="B146" s="8" t="n">
@@ -7042,11 +6327,6 @@
       <c r="M146" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="147" ht="15.75" customHeight="1" s="6">
       <c r="B147" s="8" t="n">
@@ -7087,11 +6367,6 @@
       <c r="M147" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="148" ht="15.75" customHeight="1" s="6">
       <c r="B148" s="8" t="n">
@@ -7132,11 +6407,6 @@
       <c r="M148" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="149" ht="15.75" customHeight="1" s="6">
       <c r="B149" s="8" t="n">
@@ -7177,11 +6447,6 @@
       <c r="M149" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="150" ht="15.75" customHeight="1" s="6">
       <c r="B150" s="8" t="n">
@@ -7222,11 +6487,6 @@
       <c r="M150" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="151" ht="15.75" customHeight="1" s="6">
       <c r="B151" s="8" t="n">
@@ -7267,11 +6527,6 @@
       <c r="M151" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="152" ht="15.75" customHeight="1" s="6">
       <c r="B152" s="8" t="n">
@@ -7312,11 +6567,6 @@
       <c r="M152" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="153" ht="15.75" customHeight="1" s="6">
       <c r="B153" s="8" t="n">
@@ -7357,11 +6607,6 @@
       <c r="M153" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="154" ht="15.75" customHeight="1" s="6">
       <c r="B154" s="8" t="n">
@@ -7402,11 +6647,6 @@
       <c r="M154" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="155" ht="15.75" customHeight="1" s="6">
       <c r="B155" s="8" t="n">
@@ -7447,11 +6687,6 @@
       <c r="M155" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="156" ht="15.75" customHeight="1" s="6">
       <c r="B156" s="8" t="n">
@@ -7492,11 +6727,6 @@
       <c r="M156" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="157" ht="15.75" customHeight="1" s="6">
       <c r="B157" s="8" t="n">
@@ -7537,11 +6767,6 @@
       <c r="M157" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="158" ht="15.75" customHeight="1" s="6">
       <c r="B158" s="8" t="n">
@@ -7582,11 +6807,6 @@
       <c r="M158" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="159" ht="15.75" customHeight="1" s="6">
       <c r="B159" s="8" t="n">
@@ -7627,11 +6847,6 @@
       <c r="M159" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="160" ht="15.75" customHeight="1" s="6">
       <c r="B160" s="8" t="n">
@@ -7672,11 +6887,6 @@
       <c r="M160" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="161" ht="15.75" customHeight="1" s="6">
       <c r="B161" s="8" t="n">
@@ -7717,11 +6927,6 @@
       <c r="M161" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="162" ht="15.75" customHeight="1" s="6">
       <c r="B162" s="8" t="n">
@@ -7762,11 +6967,6 @@
       <c r="M162" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="163" ht="15.75" customHeight="1" s="6">
       <c r="B163" s="8" t="n">
@@ -7807,11 +7007,6 @@
       <c r="M163" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="164" ht="15.75" customHeight="1" s="6">
       <c r="B164" s="8" t="n">
@@ -7852,11 +7047,6 @@
       <c r="M164" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="165" ht="15.75" customHeight="1" s="6">
       <c r="B165" s="8" t="n">
@@ -7897,11 +7087,6 @@
       <c r="M165" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="166" ht="15.75" customHeight="1" s="6">
       <c r="B166" s="8" t="n">
@@ -7942,11 +7127,6 @@
       <c r="M166" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="167" ht="15.75" customHeight="1" s="6">
       <c r="B167" s="8" t="n">
@@ -7987,11 +7167,6 @@
       <c r="M167" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="168" ht="15.75" customHeight="1" s="6">
       <c r="B168" s="8" t="n">
@@ -8032,11 +7207,6 @@
       <c r="M168" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="169" ht="15.75" customHeight="1" s="6">
       <c r="B169" s="8" t="n">
@@ -8077,11 +7247,6 @@
       <c r="M169" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="170" ht="15.75" customHeight="1" s="6">
       <c r="B170" s="8" t="n">
@@ -8122,11 +7287,6 @@
       <c r="M170" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="171" ht="15.75" customHeight="1" s="6">
       <c r="B171" s="8" t="n">
@@ -8167,11 +7327,6 @@
       <c r="M171" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="172" ht="15.75" customHeight="1" s="6">
       <c r="B172" s="8" t="n">
@@ -8212,11 +7367,6 @@
       <c r="M172" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="173" ht="15.75" customHeight="1" s="6">
       <c r="B173" s="8" t="n">
@@ -8257,11 +7407,6 @@
       <c r="M173" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="174" ht="15.75" customHeight="1" s="6">
       <c r="B174" s="8" t="n">
@@ -8302,11 +7447,6 @@
       <c r="M174" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="175" ht="15.75" customHeight="1" s="6">
       <c r="B175" s="8" t="n">
@@ -8347,11 +7487,6 @@
       <c r="M175" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="176" ht="15.75" customHeight="1" s="6">
       <c r="B176" s="8" t="n">
@@ -8392,11 +7527,6 @@
       <c r="M176" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="177" ht="15.75" customHeight="1" s="6">
       <c r="B177" s="8" t="n">
@@ -8437,11 +7567,6 @@
       <c r="M177" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="178" ht="15.75" customHeight="1" s="6">
       <c r="B178" s="8" t="n">
@@ -8482,11 +7607,6 @@
       <c r="M178" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="179" ht="15.75" customHeight="1" s="6">
       <c r="B179" s="8" t="n">
@@ -8527,11 +7647,6 @@
       <c r="M179" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="180" ht="15.75" customHeight="1" s="6">
       <c r="B180" s="8" t="n">
@@ -8572,11 +7687,6 @@
       <c r="M180" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="181" ht="15.75" customHeight="1" s="6">
       <c r="B181" s="8" t="n">
@@ -8617,11 +7727,6 @@
       <c r="M181" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="182" ht="15.75" customHeight="1" s="6">
       <c r="B182" s="8" t="n">
@@ -8662,11 +7767,6 @@
       <c r="M182" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="183" ht="15.75" customHeight="1" s="6">
       <c r="B183" s="8" t="n">
@@ -8707,11 +7807,6 @@
       <c r="M183" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="184" ht="15.75" customHeight="1" s="6">
       <c r="B184" s="8" t="n">
@@ -8752,11 +7847,6 @@
       <c r="M184" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="185" ht="15.75" customHeight="1" s="6">
       <c r="B185" s="8" t="n">
@@ -8797,11 +7887,6 @@
       <c r="M185" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="186" ht="15.75" customHeight="1" s="6">
       <c r="B186" s="8" t="n">
@@ -8842,11 +7927,6 @@
       <c r="M186" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="187" ht="15.75" customHeight="1" s="6">
       <c r="B187" s="8" t="n">
@@ -8887,11 +7967,6 @@
       <c r="M187" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="188" ht="15.75" customHeight="1" s="6">
       <c r="B188" s="8" t="n">
@@ -8932,11 +8007,6 @@
       <c r="M188" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="189" ht="15.75" customHeight="1" s="6">
       <c r="B189" s="8" t="n">
@@ -8977,11 +8047,6 @@
       <c r="M189" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="190" ht="15.75" customHeight="1" s="6">
       <c r="B190" s="8" t="n">
@@ -9022,11 +8087,6 @@
       <c r="M190" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="191" ht="15.75" customHeight="1" s="6">
       <c r="B191" s="8" t="n">
@@ -9067,11 +8127,6 @@
       <c r="M191" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="192" ht="15.75" customHeight="1" s="6">
       <c r="B192" s="8" t="n">
@@ -9112,11 +8167,6 @@
       <c r="M192" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="193" ht="15.75" customHeight="1" s="6">
       <c r="B193" s="8" t="n">
@@ -9157,11 +8207,6 @@
       <c r="M193" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="194" ht="15.75" customHeight="1" s="6">
       <c r="B194" s="8" t="n">
@@ -9202,11 +8247,6 @@
       <c r="M194" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="195" ht="15.75" customHeight="1" s="6">
       <c r="B195" s="8" t="n">
@@ -9247,11 +8287,6 @@
       <c r="M195" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="196" ht="15.75" customHeight="1" s="6">
       <c r="B196" s="8" t="n">
@@ -9292,11 +8327,6 @@
       <c r="M196" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="197" ht="15.75" customHeight="1" s="6">
       <c r="B197" s="8" t="n">
@@ -9337,11 +8367,6 @@
       <c r="M197" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="198" ht="15.75" customHeight="1" s="6">
       <c r="B198" s="8" t="n">
@@ -9382,11 +8407,6 @@
       <c r="M198" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="199" ht="15.75" customHeight="1" s="6">
       <c r="B199" s="8" t="n">
@@ -9427,11 +8447,6 @@
       <c r="M199" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="200" ht="15.75" customHeight="1" s="6">
       <c r="B200" s="8" t="n">
@@ -9472,11 +8487,6 @@
       <c r="M200" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="201" ht="15.75" customHeight="1" s="6">
       <c r="B201" s="8" t="n">
@@ -9517,11 +8527,6 @@
       <c r="M201" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="202" ht="15.75" customHeight="1" s="6">
       <c r="B202" s="8" t="n">
@@ -9562,11 +8567,6 @@
       <c r="M202" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="203" ht="15.75" customHeight="1" s="6">
       <c r="B203" s="8" t="n">
@@ -9607,11 +8607,6 @@
       <c r="M203" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="204" ht="15.75" customHeight="1" s="6">
       <c r="B204" s="8" t="n">
@@ -9652,11 +8647,6 @@
       <c r="M204" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="205" ht="15.75" customHeight="1" s="6">
       <c r="B205" s="8" t="n">
@@ -9697,11 +8687,6 @@
       <c r="M205" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="206" ht="15.75" customHeight="1" s="6">
       <c r="B206" s="8" t="n">
@@ -9742,11 +8727,6 @@
       <c r="M206" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="207" ht="15.75" customHeight="1" s="6">
       <c r="B207" s="8" t="n">
@@ -9787,11 +8767,6 @@
       <c r="M207" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="208" ht="15.75" customHeight="1" s="6">
       <c r="B208" s="8" t="n">
@@ -9832,11 +8807,6 @@
       <c r="M208" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="209" ht="15.75" customHeight="1" s="6">
       <c r="B209" s="8" t="n">
@@ -9877,11 +8847,6 @@
       <c r="M209" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="210" ht="15.75" customHeight="1" s="6">
       <c r="B210" s="8" t="n">
@@ -9922,11 +8887,6 @@
       <c r="M210" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="211" ht="15.75" customHeight="1" s="6">
       <c r="B211" s="8" t="n">
@@ -9967,11 +8927,6 @@
       <c r="M211" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N211" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="212" ht="15.75" customHeight="1" s="6">
       <c r="B212" s="8" t="n">
@@ -10012,11 +8967,6 @@
       <c r="M212" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N212" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="213" ht="15.75" customHeight="1" s="6">
       <c r="B213" s="8" t="n">
@@ -10057,11 +9007,6 @@
       <c r="M213" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="214" ht="15.75" customHeight="1" s="6">
       <c r="B214" s="8" t="n">
@@ -10102,11 +9047,6 @@
       <c r="M214" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="215" ht="15.75" customHeight="1" s="6">
       <c r="B215" s="8" t="n">
@@ -10147,11 +9087,6 @@
       <c r="M215" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="216" ht="15.75" customHeight="1" s="6">
       <c r="B216" s="8" t="n">
@@ -10192,11 +9127,6 @@
       <c r="M216" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N216" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="217" ht="15.75" customHeight="1" s="6">
       <c r="B217" s="8" t="n">
@@ -10237,11 +9167,6 @@
       <c r="M217" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="218" ht="15.75" customHeight="1" s="6">
       <c r="B218" s="8" t="n">
@@ -10282,11 +9207,6 @@
       <c r="M218" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="219" ht="15.75" customHeight="1" s="6">
       <c r="B219" s="8" t="n">
@@ -10327,11 +9247,6 @@
       <c r="M219" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="220" ht="15.75" customHeight="1" s="6">
       <c r="B220" s="8" t="n">
@@ -10372,11 +9287,6 @@
       <c r="M220" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N220" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="221" ht="15.75" customHeight="1" s="6">
       <c r="B221" s="8" t="n">
@@ -10417,11 +9327,6 @@
       <c r="M221" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N221" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="222" ht="15.75" customHeight="1" s="6">
       <c r="B222" s="8" t="n">
@@ -10462,11 +9367,6 @@
       <c r="M222" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="223" ht="15.75" customHeight="1" s="6">
       <c r="B223" s="8" t="n">
@@ -10507,11 +9407,6 @@
       <c r="M223" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="224" ht="15.75" customHeight="1" s="6">
       <c r="B224" s="8" t="n">
@@ -10552,11 +9447,6 @@
       <c r="M224" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="225" ht="15.75" customHeight="1" s="6">
       <c r="B225" s="8" t="n">
@@ -10597,11 +9487,6 @@
       <c r="M225" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N225" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="226" ht="15.75" customHeight="1" s="6">
       <c r="B226" s="8" t="n">
@@ -10642,11 +9527,6 @@
       <c r="M226" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="227" ht="15.75" customHeight="1" s="6">
       <c r="B227" s="8" t="n">
@@ -10687,11 +9567,6 @@
       <c r="M227" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="228" ht="15.75" customHeight="1" s="6">
       <c r="B228" s="8" t="n">
@@ -10732,11 +9607,6 @@
       <c r="M228" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="N228" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="229" ht="15.75" customHeight="1" s="6">
       <c r="B229" s="8" t="n">
@@ -10777,11 +9647,6 @@
       <c r="M229" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="230" ht="15.75" customHeight="1" s="6">
       <c r="B230" s="8" t="n">
@@ -10822,11 +9687,6 @@
       <c r="M230" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N230" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="231" ht="15.75" customHeight="1" s="6">
       <c r="B231" s="8" t="n">
@@ -10867,11 +9727,6 @@
       <c r="M231" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="232" ht="15.75" customHeight="1" s="6">
       <c r="B232" s="8" t="n">
@@ -10912,11 +9767,6 @@
       <c r="M232" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N232" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="233" ht="15.75" customHeight="1" s="6">
       <c r="B233" s="8" t="n">
@@ -10957,11 +9807,6 @@
       <c r="M233" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N233" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="234" ht="15.75" customHeight="1" s="6">
       <c r="B234" s="8" t="n">
@@ -11002,11 +9847,6 @@
       <c r="M234" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N234" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="235" ht="15.75" customHeight="1" s="6">
       <c r="B235" s="8" t="n">
@@ -11047,11 +9887,6 @@
       <c r="M235" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N235" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="236" ht="15.75" customHeight="1" s="6">
       <c r="B236" s="8" t="n">
@@ -11092,11 +9927,6 @@
       <c r="M236" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N236" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="237" ht="15.75" customHeight="1" s="6">
       <c r="B237" s="8" t="n">
@@ -11137,11 +9967,6 @@
       <c r="M237" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="238" ht="15.75" customHeight="1" s="6">
       <c r="B238" s="8" t="n">
@@ -11182,11 +10007,6 @@
       <c r="M238" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N238" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="239" ht="15.75" customHeight="1" s="6">
       <c r="B239" s="8" t="n">
@@ -11227,11 +10047,6 @@
       <c r="M239" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N239" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="240" ht="15.75" customHeight="1" s="6">
       <c r="B240" s="8" t="n">
@@ -11272,11 +10087,6 @@
       <c r="M240" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N240" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="241" ht="15.75" customHeight="1" s="6">
       <c r="B241" s="8" t="n">
@@ -11317,11 +10127,6 @@
       <c r="M241" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="242" ht="15.75" customHeight="1" s="6">
       <c r="B242" s="8" t="n">
@@ -11362,11 +10167,6 @@
       <c r="M242" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N242" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="243" ht="15.75" customHeight="1" s="6">
       <c r="B243" s="8" t="n">
@@ -11407,11 +10207,6 @@
       <c r="M243" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="N243" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="244" ht="15.75" customHeight="1" s="6">
       <c r="B244" s="8" t="n">
@@ -11452,11 +10247,6 @@
       <c r="M244" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N244" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="245" ht="15.75" customHeight="1" s="6">
       <c r="B245" s="8" t="n">
@@ -11497,11 +10287,6 @@
       <c r="M245" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N245" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="246" ht="15.75" customHeight="1" s="6">
       <c r="B246" s="8" t="n">
@@ -11542,11 +10327,6 @@
       <c r="M246" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N246" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="247" ht="15.75" customHeight="1" s="6">
       <c r="B247" s="8" t="n">
@@ -11587,11 +10367,6 @@
       <c r="M247" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N247" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="248" ht="15.75" customHeight="1" s="6">
       <c r="B248" s="8" t="n">
@@ -11632,11 +10407,6 @@
       <c r="M248" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="249" ht="15.75" customHeight="1" s="6">
       <c r="B249" s="8" t="n">
@@ -11677,11 +10447,6 @@
       <c r="M249" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N249" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="250" ht="15.75" customHeight="1" s="6">
       <c r="B250" s="8" t="n">
@@ -11722,11 +10487,6 @@
       <c r="M250" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="N250" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="251" ht="15.75" customHeight="1" s="6">
       <c r="B251" s="8" t="n">
@@ -11767,11 +10527,6 @@
       <c r="M251" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="252" ht="15.75" customHeight="1" s="6">
       <c r="B252" s="8" t="n">
@@ -11812,11 +10567,6 @@
       <c r="M252" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N252" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="253" ht="15.75" customHeight="1" s="6">
       <c r="B253" s="8" t="n">
@@ -11857,11 +10607,6 @@
       <c r="M253" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N253" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="254" ht="15.75" customHeight="1" s="6">
       <c r="B254" s="8" t="n">
@@ -11902,11 +10647,6 @@
       <c r="M254" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N254" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="255" ht="15.75" customHeight="1" s="6">
       <c r="B255" s="8" t="n">
@@ -11947,11 +10687,6 @@
       <c r="M255" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N255" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="256" ht="15.75" customHeight="1" s="6">
       <c r="B256" s="8" t="n">
@@ -11992,11 +10727,6 @@
       <c r="M256" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N256" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="257" ht="15.75" customHeight="1" s="6">
       <c r="B257" s="8" t="n">
@@ -12037,11 +10767,6 @@
       <c r="M257" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N257" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="258" ht="15.75" customHeight="1" s="6">
       <c r="B258" s="8" t="n">
@@ -12082,11 +10807,6 @@
       <c r="M258" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N258" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="259" ht="15.75" customHeight="1" s="6">
       <c r="B259" s="8" t="n">
@@ -12127,11 +10847,6 @@
       <c r="M259" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="N259" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="260" ht="15.75" customHeight="1" s="6">
       <c r="B260" s="8" t="n">
@@ -12172,11 +10887,6 @@
       <c r="M260" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N260" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="261" ht="15.75" customHeight="1" s="6">
       <c r="B261" s="8" t="n">
@@ -12217,11 +10927,6 @@
       <c r="M261" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N261" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="262" ht="15.75" customHeight="1" s="6">
       <c r="B262" s="8" t="n">
@@ -12262,11 +10967,6 @@
       <c r="M262" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N262" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="263" ht="15.75" customHeight="1" s="6">
       <c r="B263" s="8" t="n">
@@ -12307,11 +11007,6 @@
       <c r="M263" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="N263" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="264" ht="15.75" customHeight="1" s="6">
       <c r="B264" s="8" t="n">
@@ -12352,11 +11047,6 @@
       <c r="M264" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N264" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="265" ht="15.75" customHeight="1" s="6">
       <c r="B265" s="8" t="n">
@@ -12397,11 +11087,6 @@
       <c r="M265" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N265" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="266" ht="15.75" customHeight="1" s="6">
       <c r="B266" s="8" t="n">
@@ -12442,11 +11127,6 @@
       <c r="M266" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N266" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="267" ht="15.75" customHeight="1" s="6">
       <c r="B267" s="8" t="n">
@@ -12487,11 +11167,6 @@
       <c r="M267" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="268" ht="15.75" customHeight="1" s="6">
       <c r="B268" s="8" t="n">
@@ -12532,11 +11207,6 @@
       <c r="M268" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N268" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="269" ht="15.75" customHeight="1" s="6">
       <c r="B269" s="8" t="n">
@@ -12577,11 +11247,6 @@
       <c r="M269" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N269" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="270" ht="15.75" customHeight="1" s="6">
       <c r="B270" s="8" t="n">
@@ -12622,11 +11287,6 @@
       <c r="M270" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N270" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="271" ht="15.75" customHeight="1" s="6">
       <c r="B271" s="8" t="n">
@@ -12667,11 +11327,6 @@
       <c r="M271" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N271" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="272" ht="15.75" customHeight="1" s="6">
       <c r="B272" s="8" t="n">
@@ -12712,11 +11367,6 @@
       <c r="M272" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N272" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="273" ht="15.75" customHeight="1" s="6">
       <c r="B273" s="8" t="n">
@@ -12757,11 +11407,6 @@
       <c r="M273" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N273" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="274" ht="15.75" customHeight="1" s="6">
       <c r="B274" s="8" t="n">
@@ -12802,11 +11447,6 @@
       <c r="M274" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N274" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="275" ht="15.75" customHeight="1" s="6">
       <c r="B275" s="8" t="n">
@@ -12847,11 +11487,6 @@
       <c r="M275" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="N275" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="276" ht="15.75" customHeight="1" s="6">
       <c r="B276" s="8" t="n">
@@ -12892,11 +11527,6 @@
       <c r="M276" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="277" ht="15.75" customHeight="1" s="6">
       <c r="B277" s="8" t="n">
@@ -12937,11 +11567,6 @@
       <c r="M277" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="N277" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="278" ht="15.75" customHeight="1" s="6">
       <c r="B278" s="8" t="n">
@@ -12982,11 +11607,6 @@
       <c r="M278" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="N278" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="279" ht="15.75" customHeight="1" s="6">
       <c r="B279" s="8" t="n">
@@ -13027,11 +11647,6 @@
       <c r="M279" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="N279" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="280" ht="15.75" customHeight="1" s="6">
       <c r="B280" s="8" t="n">
@@ -13072,11 +11687,6 @@
       <c r="M280" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N280" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="281" ht="15.75" customHeight="1" s="6">
       <c r="B281" s="8" t="n">
@@ -13117,11 +11727,6 @@
       <c r="M281" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="N281" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="282" ht="15.75" customHeight="1" s="6">
       <c r="B282" s="8" t="n">
@@ -13162,11 +11767,6 @@
       <c r="M282" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="283" ht="15.75" customHeight="1" s="6">
       <c r="B283" s="8" t="n">
@@ -13207,11 +11807,6 @@
       <c r="M283" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N283" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="284" ht="15.75" customHeight="1" s="6">
       <c r="B284" s="8" t="n">
@@ -13252,11 +11847,6 @@
       <c r="M284" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N284" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="285" ht="15.75" customHeight="1" s="6">
       <c r="B285" s="8" t="n">
@@ -13297,11 +11887,6 @@
       <c r="M285" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N285" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="286" ht="15.75" customHeight="1" s="6">
       <c r="B286" s="8" t="n">
@@ -13342,11 +11927,6 @@
       <c r="M286" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N286" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="287" ht="15.75" customHeight="1" s="6">
       <c r="B287" s="8" t="n">
@@ -13387,11 +11967,6 @@
       <c r="M287" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N287" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="288" ht="15.75" customHeight="1" s="6">
       <c r="B288" s="8" t="n">
@@ -13432,11 +12007,6 @@
       <c r="M288" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N288" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="289" ht="15.75" customHeight="1" s="6">
       <c r="B289" s="8" t="n">
@@ -13477,11 +12047,6 @@
       <c r="M289" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N289" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="290" ht="15.75" customHeight="1" s="6">
       <c r="B290" s="8" t="n">
@@ -13522,11 +12087,6 @@
       <c r="M290" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N290" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="291" ht="15.75" customHeight="1" s="6">
       <c r="B291" s="8" t="n">
@@ -13567,11 +12127,6 @@
       <c r="M291" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N291" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="292" ht="15.75" customHeight="1" s="6">
       <c r="B292" s="8" t="n">
@@ -13612,11 +12167,6 @@
       <c r="M292" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N292" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="293" ht="15.75" customHeight="1" s="6">
       <c r="B293" s="8" t="n">
@@ -13657,11 +12207,6 @@
       <c r="M293" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="N293" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="294" ht="15.75" customHeight="1" s="6">
       <c r="B294" s="8" t="n">
@@ -13702,11 +12247,6 @@
       <c r="M294" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N294" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="295" ht="15.75" customHeight="1" s="6">
       <c r="B295" s="8" t="n">
@@ -13747,11 +12287,6 @@
       <c r="M295" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N295" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="296" ht="15.75" customHeight="1" s="6">
       <c r="B296" s="8" t="n">
@@ -13792,11 +12327,6 @@
       <c r="M296" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N296" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="297" ht="15.75" customHeight="1" s="6">
       <c r="B297" s="8" t="n">
@@ -13837,11 +12367,6 @@
       <c r="M297" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N297" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="298" ht="15.75" customHeight="1" s="6">
       <c r="B298" s="8" t="n">
@@ -13882,11 +12407,6 @@
       <c r="M298" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="N298" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="299" ht="15.75" customHeight="1" s="6">
       <c r="B299" s="8" t="n">
@@ -13927,11 +12447,6 @@
       <c r="M299" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N299" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="300" ht="15.75" customHeight="1" s="6">
       <c r="B300" s="8" t="n">
@@ -13972,11 +12487,6 @@
       <c r="M300" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N300" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="301" ht="15.75" customHeight="1" s="6">
       <c r="B301" s="8" t="n">
@@ -14017,11 +12527,6 @@
       <c r="M301" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N301" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="302" ht="15.75" customHeight="1" s="6">
       <c r="B302" s="8" t="n">
@@ -14062,11 +12567,6 @@
       <c r="M302" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N302" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="303" ht="15.75" customHeight="1" s="6">
       <c r="B303" s="8" t="n">
@@ -14107,11 +12607,6 @@
       <c r="M303" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N303" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="304" ht="15.75" customHeight="1" s="6">
       <c r="B304" s="8" t="n">
@@ -14152,11 +12647,6 @@
       <c r="M304" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N304" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="305" ht="15.75" customHeight="1" s="6">
       <c r="B305" s="8" t="n">
@@ -14197,11 +12687,6 @@
       <c r="M305" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N305" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="306" ht="15.75" customHeight="1" s="6">
       <c r="B306" s="8" t="n">
@@ -14242,11 +12727,6 @@
       <c r="M306" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N306" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="307" ht="15.75" customHeight="1" s="6">
       <c r="B307" s="8" t="n">
@@ -14287,11 +12767,6 @@
       <c r="M307" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N307" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="308" ht="15.75" customHeight="1" s="6">
       <c r="B308" s="8" t="n">
@@ -14332,11 +12807,6 @@
       <c r="M308" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N308" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="309" ht="15.75" customHeight="1" s="6">
       <c r="B309" s="8" t="n">
@@ -14377,11 +12847,6 @@
       <c r="M309" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N309" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="310" ht="15.75" customHeight="1" s="6">
       <c r="B310" s="8" t="n">
@@ -14422,11 +12887,6 @@
       <c r="M310" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N310" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="311" ht="15.75" customHeight="1" s="6">
       <c r="B311" s="8" t="n">
@@ -14467,11 +12927,6 @@
       <c r="M311" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N311" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="312" ht="15.75" customHeight="1" s="6">
       <c r="B312" s="8" t="n">
@@ -14512,11 +12967,6 @@
       <c r="M312" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="313" ht="15.75" customHeight="1" s="6">
       <c r="B313" s="8" t="n">
@@ -14557,11 +13007,6 @@
       <c r="M313" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N313" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="314" ht="15.75" customHeight="1" s="6">
       <c r="B314" s="8" t="n">
@@ -14602,11 +13047,6 @@
       <c r="M314" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="N314" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="315" ht="15.75" customHeight="1" s="6">
       <c r="B315" s="8" t="n">
@@ -14647,11 +13087,6 @@
       <c r="M315" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N315" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="316" ht="15.75" customHeight="1" s="6">
       <c r="B316" s="8" t="n">
@@ -14692,11 +13127,6 @@
       <c r="M316" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N316" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="317" ht="15.75" customHeight="1" s="6">
       <c r="B317" s="8" t="n">
@@ -14737,11 +13167,6 @@
       <c r="M317" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N317" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="318" ht="15.75" customHeight="1" s="6">
       <c r="B318" s="8" t="n">
@@ -14782,11 +13207,6 @@
       <c r="M318" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="N318" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="319" ht="15.75" customHeight="1" s="6">
       <c r="B319" s="8" t="n">
@@ -14827,11 +13247,6 @@
       <c r="M319" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="N319" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="320" ht="15.75" customHeight="1" s="6">
       <c r="B320" s="8" t="n">
@@ -14872,11 +13287,6 @@
       <c r="M320" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="N320" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="321" ht="15.75" customHeight="1" s="6">
       <c r="B321" s="8" t="n">
@@ -14917,11 +13327,6 @@
       <c r="M321" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N321" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="322" ht="15.75" customHeight="1" s="6">
       <c r="B322" s="8" t="n">
@@ -14962,11 +13367,6 @@
       <c r="M322" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="323" ht="15.75" customHeight="1" s="6">
       <c r="B323" s="8" t="n">
@@ -15007,11 +13407,6 @@
       <c r="M323" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N323" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="324" ht="15.75" customHeight="1" s="6">
       <c r="B324" s="8" t="n">
@@ -15052,11 +13447,6 @@
       <c r="M324" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N324" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="325" ht="15.75" customHeight="1" s="6">
       <c r="B325" s="8" t="n">
@@ -15097,11 +13487,6 @@
       <c r="M325" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N325" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="326" ht="15.75" customHeight="1" s="6">
       <c r="B326" s="8" t="n">
@@ -15142,11 +13527,6 @@
       <c r="M326" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N326" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="327" ht="15.75" customHeight="1" s="6">
       <c r="B327" s="8" t="n">
@@ -15187,11 +13567,6 @@
       <c r="M327" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="328" ht="15.75" customHeight="1" s="6">
       <c r="B328" s="8" t="n">
@@ -15232,11 +13607,6 @@
       <c r="M328" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N328" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="329" ht="15.75" customHeight="1" s="6">
       <c r="B329" s="8" t="n">
@@ -15277,11 +13647,6 @@
       <c r="M329" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N329" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="330" ht="15.75" customHeight="1" s="6">
       <c r="B330" s="8" t="n">
@@ -15322,11 +13687,6 @@
       <c r="M330" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="N330" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="331" ht="15.75" customHeight="1" s="6">
       <c r="B331" s="8" t="n">
@@ -15367,11 +13727,6 @@
       <c r="M331" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N331" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="332" ht="15.75" customHeight="1" s="6">
       <c r="B332" s="8" t="n">
@@ -15412,11 +13767,6 @@
       <c r="M332" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N332" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="333" ht="15.75" customHeight="1" s="6">
       <c r="B333" s="8" t="n">
@@ -15457,11 +13807,6 @@
       <c r="M333" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="334" ht="15.75" customHeight="1" s="6">
       <c r="B334" s="8" t="n">
@@ -15502,11 +13847,6 @@
       <c r="M334" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N334" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="335" ht="15.75" customHeight="1" s="6">
       <c r="B335" s="8" t="n">
@@ -15547,11 +13887,6 @@
       <c r="M335" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N335" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="336" ht="15.75" customHeight="1" s="6">
       <c r="B336" s="8" t="n">
@@ -15592,11 +13927,6 @@
       <c r="M336" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N336" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="337" ht="15.75" customHeight="1" s="6">
       <c r="B337" s="8" t="n">
@@ -15637,11 +13967,6 @@
       <c r="M337" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="N337" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="338" ht="15.75" customHeight="1" s="6">
       <c r="B338" s="8" t="n">
@@ -15682,11 +14007,6 @@
       <c r="M338" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N338" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="339" ht="15.75" customHeight="1" s="6">
       <c r="B339" s="8" t="n">
@@ -15727,11 +14047,6 @@
       <c r="M339" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N339" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="340" ht="15.75" customHeight="1" s="6">
       <c r="B340" s="8" t="n">
@@ -15772,11 +14087,6 @@
       <c r="M340" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N340" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="341" ht="15.75" customHeight="1" s="6">
       <c r="B341" s="8" t="n">
@@ -15817,11 +14127,6 @@
       <c r="M341" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N341" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="342" ht="15.75" customHeight="1" s="6">
       <c r="B342" s="8" t="n">
@@ -15862,11 +14167,6 @@
       <c r="M342" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N342" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="343" ht="15.75" customHeight="1" s="6">
       <c r="B343" s="8" t="n">
@@ -15907,11 +14207,6 @@
       <c r="M343" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N343" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="344" ht="15.75" customHeight="1" s="6">
       <c r="B344" s="8" t="n">
@@ -15952,11 +14247,6 @@
       <c r="M344" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N344" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="345" ht="15.75" customHeight="1" s="6">
       <c r="B345" s="8" t="n">
@@ -15997,11 +14287,6 @@
       <c r="M345" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N345" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="346" ht="15.75" customHeight="1" s="6">
       <c r="B346" s="8" t="n">
@@ -16042,11 +14327,6 @@
       <c r="M346" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N346" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="347" ht="15.75" customHeight="1" s="6">
       <c r="B347" s="8" t="n">
@@ -16087,11 +14367,6 @@
       <c r="M347" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N347" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="348" ht="15.75" customHeight="1" s="6">
       <c r="B348" s="8" t="n">
@@ -16132,11 +14407,6 @@
       <c r="M348" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N348" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="349" ht="15.75" customHeight="1" s="6">
       <c r="B349" s="8" t="n">
@@ -16177,11 +14447,6 @@
       <c r="M349" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N349" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="350" ht="15.75" customHeight="1" s="6">
       <c r="B350" s="8" t="n">
@@ -16222,11 +14487,6 @@
       <c r="M350" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="N350" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="351" ht="15.75" customHeight="1" s="6">
       <c r="B351" s="8" t="n">
@@ -16267,11 +14527,6 @@
       <c r="M351" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N351" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="352" ht="15.75" customHeight="1" s="6">
       <c r="B352" s="8" t="n">
@@ -16312,11 +14567,6 @@
       <c r="M352" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N352" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="353" ht="15.75" customHeight="1" s="6">
       <c r="B353" s="8" t="n">
@@ -16357,11 +14607,6 @@
       <c r="M353" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="354" ht="15.75" customHeight="1" s="6">
       <c r="B354" s="8" t="n">
@@ -16402,11 +14647,6 @@
       <c r="M354" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="N354" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="355" ht="15.75" customHeight="1" s="6">
       <c r="B355" s="8" t="n">
@@ -16447,11 +14687,6 @@
       <c r="M355" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N355" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="356" ht="15.75" customHeight="1" s="6">
       <c r="B356" s="8" t="n">
@@ -16492,11 +14727,6 @@
       <c r="M356" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N356" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="357" ht="15.75" customHeight="1" s="6">
       <c r="B357" s="8" t="n">
@@ -16537,11 +14767,6 @@
       <c r="M357" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N357" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="358" ht="15.75" customHeight="1" s="6">
       <c r="B358" s="8" t="n">
@@ -16582,11 +14807,6 @@
       <c r="M358" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N358" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="359" ht="15.75" customHeight="1" s="6">
       <c r="B359" s="8" t="n">
@@ -16627,11 +14847,6 @@
       <c r="M359" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N359" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="360" ht="15.75" customHeight="1" s="6">
       <c r="B360" s="8" t="n">
@@ -16672,11 +14887,6 @@
       <c r="M360" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="N360" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="361" ht="15.75" customHeight="1" s="6">
       <c r="B361" s="8" t="n">
@@ -16716,11 +14926,6 @@
       </c>
       <c r="M361" s="5" t="n">
         <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1" s="6">
